--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -374,26 +374,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" xml:space="preserve">
       <c r="A1" t="str">
         <v>name</v>
       </c>
       <c r="B1" t="str">
         <v>age</v>
       </c>
-      <c r="C1" t="str">
-        <v>country</v>
+      <c r="C1" t="str" xml:space="preserve">
+        <v xml:space="preserve">country
+cococo</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Jane</v>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jane
+jjjjj</v>
       </c>
       <c r="B2" t="str">
         <v>19</v>
-      </c>
-      <c r="C2" t="str">
-        <v>China</v>
       </c>
     </row>
     <row r="3">
@@ -403,9 +402,6 @@
       <c r="B3" t="str">
         <v>20</v>
       </c>
-      <c r="C3" t="str">
-        <v>America</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
